--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nlgn2</t>
+  </si>
+  <si>
+    <t>Nrxn2</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nlgn2</t>
-  </si>
-  <si>
-    <t>Nrxn2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.105309333333333</v>
+        <v>3.043038666666666</v>
       </c>
       <c r="H2">
-        <v>6.315928</v>
+        <v>9.129116</v>
       </c>
       <c r="I2">
-        <v>0.1253156463506908</v>
+        <v>0.2550160052704314</v>
       </c>
       <c r="J2">
-        <v>0.1253156463506908</v>
+        <v>0.2550160052704314</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03061966666666667</v>
+        <v>0.136464</v>
       </c>
       <c r="N2">
-        <v>0.091859</v>
+        <v>0.409392</v>
       </c>
       <c r="O2">
-        <v>0.04788163422745326</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="P2">
-        <v>0.04788163422745326</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="Q2">
-        <v>0.0644638700168889</v>
+        <v>0.415265228608</v>
       </c>
       <c r="R2">
-        <v>0.580174830152</v>
+        <v>3.737387057472</v>
       </c>
       <c r="S2">
-        <v>0.006000317941540666</v>
+        <v>0.06776744706048186</v>
       </c>
       <c r="T2">
-        <v>0.006000317941540666</v>
+        <v>0.06776744706048185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.105309333333333</v>
+        <v>3.043038666666666</v>
       </c>
       <c r="H3">
-        <v>6.315928</v>
+        <v>9.129116</v>
       </c>
       <c r="I3">
-        <v>0.1253156463506908</v>
+        <v>0.2550160052704314</v>
       </c>
       <c r="J3">
-        <v>0.1253156463506908</v>
+        <v>0.2550160052704314</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.9586520000000001</v>
       </c>
       <c r="O3">
-        <v>0.499698716679003</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="P3">
-        <v>0.499698716679003</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="Q3">
-        <v>0.6727530010062224</v>
+        <v>0.9724050346257779</v>
       </c>
       <c r="R3">
-        <v>6.054777009056001</v>
+        <v>8.751645311632</v>
       </c>
       <c r="S3">
-        <v>0.06262006766123998</v>
+        <v>0.1586875138239758</v>
       </c>
       <c r="T3">
-        <v>0.06262006766123998</v>
+        <v>0.1586875138239757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -667,61 +667,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.105309333333333</v>
+        <v>3.043038666666666</v>
       </c>
       <c r="H4">
-        <v>6.315928</v>
+        <v>9.129116</v>
       </c>
       <c r="I4">
-        <v>0.1253156463506908</v>
+        <v>0.2550160052704314</v>
       </c>
       <c r="J4">
-        <v>0.1253156463506908</v>
+        <v>0.2550160052704314</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2893163333333333</v>
+        <v>0.01800166666666667</v>
       </c>
       <c r="N4">
-        <v>0.867949</v>
+        <v>0.054005</v>
       </c>
       <c r="O4">
-        <v>0.4524196490935437</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="P4">
-        <v>0.4524196490935438</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="Q4">
-        <v>0.6091003768524446</v>
+        <v>0.0547797677311111</v>
       </c>
       <c r="R4">
-        <v>5.481903391672001</v>
+        <v>0.49301790958</v>
       </c>
       <c r="S4">
-        <v>0.05669526074791016</v>
+        <v>0.008939551770677795</v>
       </c>
       <c r="T4">
-        <v>0.05669526074791017</v>
+        <v>0.008939551770677793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.243382666666666</v>
+        <v>3.043038666666666</v>
       </c>
       <c r="H5">
-        <v>18.730148</v>
+        <v>9.129116</v>
       </c>
       <c r="I5">
-        <v>0.3716287777289574</v>
+        <v>0.2550160052704314</v>
       </c>
       <c r="J5">
-        <v>0.3716287777289575</v>
+        <v>0.2550160052704314</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03061966666666667</v>
+        <v>0.039512</v>
       </c>
       <c r="N5">
-        <v>0.091859</v>
+        <v>0.118536</v>
       </c>
       <c r="O5">
-        <v>0.04788163422745326</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="P5">
-        <v>0.04788163422745326</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="Q5">
-        <v>0.1911702961257778</v>
+        <v>0.1202365437973333</v>
       </c>
       <c r="R5">
-        <v>1.720532665132</v>
+        <v>1.082128894176</v>
       </c>
       <c r="S5">
-        <v>0.01779419320361347</v>
+        <v>0.01962149261529605</v>
       </c>
       <c r="T5">
-        <v>0.01779419320361347</v>
+        <v>0.01962149261529604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>18.730148</v>
       </c>
       <c r="I6">
-        <v>0.3716287777289574</v>
+        <v>0.5232146815840615</v>
       </c>
       <c r="J6">
-        <v>0.3716287777289575</v>
+        <v>0.5232146815840614</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3195506666666667</v>
+        <v>0.136464</v>
       </c>
       <c r="N6">
-        <v>0.9586520000000001</v>
+        <v>0.409392</v>
       </c>
       <c r="O6">
-        <v>0.499698716679003</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="P6">
-        <v>0.499698716679003</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="Q6">
-        <v>1.995077093388445</v>
+        <v>0.8519969722239999</v>
       </c>
       <c r="R6">
-        <v>17.955693840496</v>
+        <v>7.667972750015999</v>
       </c>
       <c r="S6">
-        <v>0.1857024233121465</v>
+        <v>0.1390380309577609</v>
       </c>
       <c r="T6">
-        <v>0.1857024233121465</v>
+        <v>0.1390380309577609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>18.730148</v>
       </c>
       <c r="I7">
-        <v>0.3716287777289574</v>
+        <v>0.5232146815840615</v>
       </c>
       <c r="J7">
-        <v>0.3716287777289575</v>
+        <v>0.5232146815840614</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,42 +871,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2893163333333333</v>
+        <v>0.3195506666666667</v>
       </c>
       <c r="N7">
-        <v>0.867949</v>
+        <v>0.9586520000000001</v>
       </c>
       <c r="O7">
-        <v>0.4524196490935437</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="P7">
-        <v>0.4524196490935438</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="Q7">
-        <v>1.806312580716889</v>
+        <v>1.995077093388445</v>
       </c>
       <c r="R7">
-        <v>16.256813226452</v>
+        <v>17.955693840496</v>
       </c>
       <c r="S7">
-        <v>0.1681321612131975</v>
+        <v>0.3255781413748178</v>
       </c>
       <c r="T7">
-        <v>0.1681321612131975</v>
+        <v>0.3255781413748178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.324794</v>
+        <v>6.243382666666666</v>
       </c>
       <c r="H8">
-        <v>0.974382</v>
+        <v>18.730148</v>
       </c>
       <c r="I8">
-        <v>0.01933291673408544</v>
+        <v>0.5232146815840615</v>
       </c>
       <c r="J8">
-        <v>0.01933291673408544</v>
+        <v>0.5232146815840614</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.03061966666666667</v>
+        <v>0.01800166666666667</v>
       </c>
       <c r="N8">
-        <v>0.091859</v>
+        <v>0.054005</v>
       </c>
       <c r="O8">
-        <v>0.04788163422745326</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="P8">
-        <v>0.04788163422745326</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="Q8">
-        <v>0.009945084015333332</v>
+        <v>0.1123912936377778</v>
       </c>
       <c r="R8">
-        <v>0.08950575613799999</v>
+        <v>1.01152164274</v>
       </c>
       <c r="S8">
-        <v>0.0009256916476112894</v>
+        <v>0.01834122030199388</v>
       </c>
       <c r="T8">
-        <v>0.0009256916476112895</v>
+        <v>0.01834122030199387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.324794</v>
+        <v>6.243382666666666</v>
       </c>
       <c r="H9">
-        <v>0.974382</v>
+        <v>18.730148</v>
       </c>
       <c r="I9">
-        <v>0.01933291673408544</v>
+        <v>0.5232146815840615</v>
       </c>
       <c r="J9">
-        <v>0.01933291673408544</v>
+        <v>0.5232146815840614</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3195506666666667</v>
+        <v>0.039512</v>
       </c>
       <c r="N9">
-        <v>0.9586520000000001</v>
+        <v>0.118536</v>
       </c>
       <c r="O9">
-        <v>0.499698716679003</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="P9">
-        <v>0.499698716679003</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="Q9">
-        <v>0.1037881392293333</v>
+        <v>0.2466885359253333</v>
       </c>
       <c r="R9">
-        <v>0.934093253064</v>
+        <v>2.220196823328</v>
       </c>
       <c r="S9">
-        <v>0.009660633681684516</v>
+        <v>0.04025728894948886</v>
       </c>
       <c r="T9">
-        <v>0.009660633681684518</v>
+        <v>0.04025728894948886</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,60 +1039,60 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.324794</v>
+        <v>0.282636</v>
       </c>
       <c r="H10">
-        <v>0.974382</v>
+        <v>0.847908</v>
       </c>
       <c r="I10">
-        <v>0.01933291673408544</v>
+        <v>0.02368576661714464</v>
       </c>
       <c r="J10">
-        <v>0.01933291673408544</v>
+        <v>0.02368576661714463</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2893163333333333</v>
+        <v>0.136464</v>
       </c>
       <c r="N10">
-        <v>0.867949</v>
+        <v>0.409392</v>
       </c>
       <c r="O10">
-        <v>0.4524196490935437</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="P10">
-        <v>0.4524196490935438</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="Q10">
-        <v>0.09396820916866666</v>
+        <v>0.038569639104</v>
       </c>
       <c r="R10">
-        <v>0.8457138825179999</v>
+        <v>0.347126751936</v>
       </c>
       <c r="S10">
-        <v>0.008746591404789634</v>
+        <v>0.006294208607072038</v>
       </c>
       <c r="T10">
-        <v>0.008746591404789637</v>
+        <v>0.006294208607072038</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,61 +1101,61 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.416383999999998</v>
+        <v>0.282636</v>
       </c>
       <c r="H11">
-        <v>22.249152</v>
+        <v>0.847908</v>
       </c>
       <c r="I11">
-        <v>0.4414500709372818</v>
+        <v>0.02368576661714464</v>
       </c>
       <c r="J11">
-        <v>0.4414500709372818</v>
+        <v>0.02368576661714463</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03061966666666667</v>
+        <v>0.3195506666666667</v>
       </c>
       <c r="N11">
-        <v>0.091859</v>
+        <v>0.9586520000000001</v>
       </c>
       <c r="O11">
-        <v>0.04788163422745326</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="P11">
-        <v>0.04788163422745326</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="Q11">
-        <v>0.2270872059519999</v>
+        <v>0.09031652222400001</v>
       </c>
       <c r="R11">
-        <v>2.043784853567999</v>
+        <v>0.8128487000160001</v>
       </c>
       <c r="S11">
-        <v>0.02113735082630222</v>
+        <v>0.01473882164181719</v>
       </c>
       <c r="T11">
-        <v>0.02113735082630222</v>
+        <v>0.01473882164181719</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.416383999999998</v>
+        <v>0.282636</v>
       </c>
       <c r="H12">
-        <v>22.249152</v>
+        <v>0.847908</v>
       </c>
       <c r="I12">
-        <v>0.4414500709372818</v>
+        <v>0.02368576661714464</v>
       </c>
       <c r="J12">
-        <v>0.4414500709372818</v>
+        <v>0.02368576661714463</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.3195506666666667</v>
+        <v>0.01800166666666667</v>
       </c>
       <c r="N12">
-        <v>0.9586520000000001</v>
+        <v>0.054005</v>
       </c>
       <c r="O12">
-        <v>0.499698716679003</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="P12">
-        <v>0.499698716679003</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="Q12">
-        <v>2.369910451456</v>
+        <v>0.00508791906</v>
       </c>
       <c r="R12">
-        <v>21.329194063104</v>
+        <v>0.04579127154</v>
       </c>
       <c r="S12">
-        <v>0.2205920339252145</v>
+        <v>0.0008303013635462478</v>
       </c>
       <c r="T12">
-        <v>0.2205920339252146</v>
+        <v>0.0008303013635462477</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,78 +1225,78 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.416383999999998</v>
+        <v>0.282636</v>
       </c>
       <c r="H13">
-        <v>22.249152</v>
+        <v>0.847908</v>
       </c>
       <c r="I13">
-        <v>0.4414500709372818</v>
+        <v>0.02368576661714464</v>
       </c>
       <c r="J13">
-        <v>0.4414500709372818</v>
+        <v>0.02368576661714463</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2893163333333333</v>
+        <v>0.039512</v>
       </c>
       <c r="N13">
-        <v>0.867949</v>
+        <v>0.118536</v>
       </c>
       <c r="O13">
-        <v>0.4524196490935437</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="P13">
-        <v>0.4524196490935438</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="Q13">
-        <v>2.145681025471999</v>
+        <v>0.011167513632</v>
       </c>
       <c r="R13">
-        <v>19.311129229248</v>
+        <v>0.100507622688</v>
       </c>
       <c r="S13">
-        <v>0.199720686185765</v>
+        <v>0.001822435004709157</v>
       </c>
       <c r="T13">
-        <v>0.1997206861857651</v>
+        <v>0.001822435004709157</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04121533333333333</v>
+        <v>2.277769666666666</v>
       </c>
       <c r="H14">
-        <v>0.123646</v>
+        <v>6.833309</v>
       </c>
       <c r="I14">
-        <v>0.002453286105965349</v>
+        <v>0.1908841079419394</v>
       </c>
       <c r="J14">
-        <v>0.002453286105965349</v>
+        <v>0.1908841079419394</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,60 +1305,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03061966666666667</v>
+        <v>0.136464</v>
       </c>
       <c r="N14">
-        <v>0.091859</v>
+        <v>0.409392</v>
       </c>
       <c r="O14">
-        <v>0.04788163422745326</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="P14">
-        <v>0.04788163422745326</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="Q14">
-        <v>0.001261999768222222</v>
+        <v>0.310833559792</v>
       </c>
       <c r="R14">
-        <v>0.011357997914</v>
+        <v>2.797502038128</v>
       </c>
       <c r="S14">
-        <v>0.000117467347981126</v>
+        <v>0.05072516395951308</v>
       </c>
       <c r="T14">
-        <v>0.000117467347981126</v>
+        <v>0.05072516395951308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04121533333333333</v>
+        <v>2.277769666666666</v>
       </c>
       <c r="H15">
-        <v>0.123646</v>
+        <v>6.833309</v>
       </c>
       <c r="I15">
-        <v>0.002453286105965349</v>
+        <v>0.1908841079419394</v>
       </c>
       <c r="J15">
-        <v>0.002453286105965349</v>
+        <v>0.1908841079419394</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,99 +1373,99 @@
         <v>0.9586520000000001</v>
       </c>
       <c r="O15">
-        <v>0.499698716679003</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="P15">
-        <v>0.499698716679003</v>
+        <v>0.6222649188457632</v>
       </c>
       <c r="Q15">
-        <v>0.01317038724355556</v>
+        <v>0.7278628154964445</v>
       </c>
       <c r="R15">
-        <v>0.118533485192</v>
+        <v>6.550765339468001</v>
       </c>
       <c r="S15">
-        <v>0.001225903918797313</v>
+        <v>0.1187804839374368</v>
       </c>
       <c r="T15">
-        <v>0.001225903918797313</v>
+        <v>0.1187804839374368</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.277769666666666</v>
+      </c>
+      <c r="H16">
+        <v>6.833309</v>
+      </c>
+      <c r="I16">
+        <v>0.1908841079419394</v>
+      </c>
+      <c r="J16">
+        <v>0.1908841079419394</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.04121533333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.123646</v>
-      </c>
-      <c r="I16">
-        <v>0.002453286105965349</v>
-      </c>
-      <c r="J16">
-        <v>0.002453286105965349</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.2893163333333333</v>
+        <v>0.01800166666666667</v>
       </c>
       <c r="N16">
-        <v>0.867949</v>
+        <v>0.054005</v>
       </c>
       <c r="O16">
-        <v>0.4524196490935437</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="P16">
-        <v>0.4524196490935438</v>
+        <v>0.03505486552186345</v>
       </c>
       <c r="Q16">
-        <v>0.01192426911711111</v>
+        <v>0.04100365028277777</v>
       </c>
       <c r="R16">
-        <v>0.107318422054</v>
+        <v>0.369032852545</v>
       </c>
       <c r="S16">
-        <v>0.001109914839186909</v>
+        <v>0.006691416734165553</v>
       </c>
       <c r="T16">
-        <v>0.00110991483918691</v>
+        <v>0.006691416734165553</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,170 +1473,294 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6689663333333332</v>
+        <v>2.277769666666666</v>
       </c>
       <c r="H17">
-        <v>2.006899</v>
+        <v>6.833309</v>
       </c>
       <c r="I17">
-        <v>0.0398193021430192</v>
+        <v>0.1908841079419394</v>
       </c>
       <c r="J17">
-        <v>0.03981930214301921</v>
+        <v>0.1908841079419394</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03061966666666667</v>
+        <v>0.039512</v>
       </c>
       <c r="N17">
-        <v>0.091859</v>
+        <v>0.118536</v>
       </c>
       <c r="O17">
-        <v>0.04788163422745326</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="P17">
-        <v>0.04788163422745326</v>
+        <v>0.0769422005277216</v>
       </c>
       <c r="Q17">
-        <v>0.02048352613788889</v>
+        <v>0.08999923506933333</v>
       </c>
       <c r="R17">
-        <v>0.184351735241</v>
+        <v>0.809993115624</v>
       </c>
       <c r="S17">
-        <v>0.001906613260404491</v>
+        <v>0.01468704331082396</v>
       </c>
       <c r="T17">
-        <v>0.001906613260404492</v>
+        <v>0.01468704331082396</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.6689663333333332</v>
+        <v>0.08590900000000001</v>
       </c>
       <c r="H18">
-        <v>2.006899</v>
+        <v>0.257727</v>
       </c>
       <c r="I18">
-        <v>0.0398193021430192</v>
+        <v>0.007199438586423099</v>
       </c>
       <c r="J18">
-        <v>0.03981930214301921</v>
+        <v>0.007199438586423097</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.3195506666666667</v>
+        <v>0.136464</v>
       </c>
       <c r="N18">
-        <v>0.9586520000000001</v>
+        <v>0.409392</v>
       </c>
       <c r="O18">
-        <v>0.499698716679003</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="P18">
-        <v>0.499698716679003</v>
+        <v>0.2657380151046518</v>
       </c>
       <c r="Q18">
-        <v>0.2137686377942222</v>
+        <v>0.011723485776</v>
       </c>
       <c r="R18">
-        <v>1.923917740148</v>
+        <v>0.105511371984</v>
       </c>
       <c r="S18">
-        <v>0.01989765417992017</v>
+        <v>0.001913164519823914</v>
       </c>
       <c r="T18">
-        <v>0.01989765417992017</v>
+        <v>0.001913164519823914</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.08590900000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.257727</v>
+      </c>
+      <c r="I19">
+        <v>0.007199438586423099</v>
+      </c>
+      <c r="J19">
+        <v>0.007199438586423097</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3195506666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.9586520000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.6222649188457632</v>
+      </c>
+      <c r="P19">
+        <v>0.6222649188457632</v>
+      </c>
+      <c r="Q19">
+        <v>0.02745227822266667</v>
+      </c>
+      <c r="R19">
+        <v>0.247070504004</v>
+      </c>
+      <c r="S19">
+        <v>0.004479958067715626</v>
+      </c>
+      <c r="T19">
+        <v>0.004479958067715625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.08590900000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.257727</v>
+      </c>
+      <c r="I20">
+        <v>0.007199438586423099</v>
+      </c>
+      <c r="J20">
+        <v>0.007199438586423097</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01800166666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.054005</v>
+      </c>
+      <c r="O20">
+        <v>0.03505486552186345</v>
+      </c>
+      <c r="P20">
+        <v>0.03505486552186345</v>
+      </c>
+      <c r="Q20">
+        <v>0.001546505181666667</v>
+      </c>
+      <c r="R20">
+        <v>0.013918546635</v>
+      </c>
+      <c r="S20">
+        <v>0.0002523753514799764</v>
+      </c>
+      <c r="T20">
+        <v>0.0002523753514799764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.6689663333333332</v>
-      </c>
-      <c r="H19">
-        <v>2.006899</v>
-      </c>
-      <c r="I19">
-        <v>0.0398193021430192</v>
-      </c>
-      <c r="J19">
-        <v>0.03981930214301921</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.2893163333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.867949</v>
-      </c>
-      <c r="O19">
-        <v>0.4524196490935437</v>
-      </c>
-      <c r="P19">
-        <v>0.4524196490935438</v>
-      </c>
-      <c r="Q19">
-        <v>0.1935428866834444</v>
-      </c>
-      <c r="R19">
-        <v>1.741885980151</v>
-      </c>
-      <c r="S19">
-        <v>0.01801503470269454</v>
-      </c>
-      <c r="T19">
-        <v>0.01801503470269454</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.08590900000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.257727</v>
+      </c>
+      <c r="I21">
+        <v>0.007199438586423099</v>
+      </c>
+      <c r="J21">
+        <v>0.007199438586423097</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.039512</v>
+      </c>
+      <c r="N21">
+        <v>0.118536</v>
+      </c>
+      <c r="O21">
+        <v>0.0769422005277216</v>
+      </c>
+      <c r="P21">
+        <v>0.0769422005277216</v>
+      </c>
+      <c r="Q21">
+        <v>0.003394436408</v>
+      </c>
+      <c r="R21">
+        <v>0.03054992767200001</v>
+      </c>
+      <c r="S21">
+        <v>0.0005539406474035826</v>
+      </c>
+      <c r="T21">
+        <v>0.0005539406474035825</v>
       </c>
     </row>
   </sheetData>
